--- a/ThecountedJuly2012.xlsx
+++ b/ThecountedJuly2012.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philadelphia\Documents\Scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents and Settings\Philadelphia\Documents\semiLit\TheCountedAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="thecounted" sheetId="1" r:id="rId1"/>
     <sheet name="DemographicTable" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -8716,8 +8716,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -9482,9 +9482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -9512,10 +9509,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9525,11 +9536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9539,12 +9545,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -9657,7 +9657,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9777,11 +9776,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="400191200"/>
-        <c:axId val="400201784"/>
+        <c:axId val="458012624"/>
+        <c:axId val="170516752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="400191200"/>
+        <c:axId val="458012624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9824,7 +9823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400201784"/>
+        <c:crossAx val="170516752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9832,7 +9831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="400201784"/>
+        <c:axId val="170516752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9883,7 +9882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400191200"/>
+        <c:crossAx val="458012624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10127,11 +10126,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="400189240"/>
-        <c:axId val="400195512"/>
+        <c:axId val="457160952"/>
+        <c:axId val="457161344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="400189240"/>
+        <c:axId val="457160952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10174,7 +10173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400195512"/>
+        <c:crossAx val="457161344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10182,7 +10181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="400195512"/>
+        <c:axId val="457161344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -10234,7 +10233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400189240"/>
+        <c:crossAx val="457160952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11701,7 +11700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL1717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AH17" sqref="AH17:AK37"/>
     </sheetView>
   </sheetViews>
@@ -11711,7 +11710,7 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="9"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" customWidth="1"/>
     <col min="19" max="19" width="24.7109375" customWidth="1"/>
@@ -11729,27 +11728,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="S1" s="33" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="S1" s="44" t="s">
         <v>2881</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -11794,28 +11793,28 @@
       <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>2875</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>2874</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>2874</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>2877</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="35" t="s">
         <v>2880</v>
       </c>
       <c r="X2" s="2" t="s">
@@ -11901,33 +11900,33 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="3">
         <f>COUNTIF(D:D,P3)</f>
         <v>1628</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="12">
         <f>Q3/$Q$6</f>
         <v>0.94927113702623911</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <f>COUNTIF(E:E,S3)</f>
         <v>443</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="22">
         <f>T3/$T$8</f>
         <v>0.26897389192471161</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="28">
         <f>T3*1000000/DemographicTable!D$2</f>
         <v>11.475197513275482</v>
       </c>
-      <c r="W3" s="30">
+      <c r="W3" s="29">
         <f>$T3*1000000/DemographicTable!D$3</f>
         <v>11.308232291001914</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>18</v>
       </c>
       <c r="Y3">
-        <f>COUNTIF(F:F,X3)/2</f>
+        <f t="shared" ref="Y3:Y8" si="0">COUNTIF(F:F,X3)/2</f>
         <v>89</v>
       </c>
       <c r="Z3">
@@ -11945,10 +11944,10 @@
         <f>COUNTIF(H:H,Z3)</f>
         <v>1146</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="15">
         <v>29</v>
       </c>
       <c r="AD3" t="s">
@@ -11958,7 +11957,7 @@
         <f>COUNTIF(J:J,AD3)</f>
         <v>9</v>
       </c>
-      <c r="AF3" s="32">
+      <c r="AF3" s="30">
         <f>AE3*1000000/DemographicTable!I5</f>
         <v>12.936610608020699</v>
       </c>
@@ -12020,33 +12019,33 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q5" si="0">COUNTIF(D:D,P4)</f>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q5" si="1">COUNTIF(D:D,P4)</f>
         <v>86</v>
       </c>
-      <c r="R4" s="13">
-        <f t="shared" ref="R4:R5" si="1">Q4/$Q$6</f>
+      <c r="R4" s="12">
+        <f t="shared" ref="R4:R5" si="2">Q4/$Q$6</f>
         <v>5.0145772594752183E-2</v>
       </c>
-      <c r="S4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="S4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="3">
         <f>COUNTIF(E:E,S4)</f>
         <v>861</v>
       </c>
-      <c r="U4" s="23">
-        <f t="shared" ref="U4:U8" si="2">T4/$T$8</f>
+      <c r="U4" s="22">
+        <f t="shared" ref="U4:U8" si="3">T4/$T$8</f>
         <v>0.5227686703096539</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="28">
         <f>T4*1000000/DemographicTable!C$2</f>
         <v>4.4074241293417735</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="29">
         <f>$T4*1000000/DemographicTable!C$3</f>
         <v>4.3946015306075576</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>32</v>
       </c>
       <c r="Y4">
-        <f>COUNTIF(F:F,X4)/2</f>
+        <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
       <c r="Z4">
@@ -12063,10 +12062,10 @@
       <c r="AA4">
         <v>569</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="17">
         <v>25</v>
       </c>
       <c r="AD4" t="s">
@@ -12075,7 +12074,7 @@
       <c r="AE4">
         <v>36</v>
       </c>
-      <c r="AF4" s="32">
+      <c r="AF4" s="30">
         <f>AE4*1000000/DemographicTable!I6</f>
         <v>7.550335570469799</v>
       </c>
@@ -12136,33 +12135,33 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="0"/>
+      <c r="Q5" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R5" s="13">
-        <f t="shared" si="1"/>
+      <c r="R5" s="12">
+        <f t="shared" si="2"/>
         <v>5.8309037900874635E-4</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <f>COUNTIF(E:E,S5)</f>
         <v>283</v>
       </c>
-      <c r="U5" s="23">
-        <f t="shared" si="2"/>
+      <c r="U5" s="22">
+        <f t="shared" si="3"/>
         <v>0.17182756527018822</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="28">
         <f>T5*1000000/DemographicTable!E$2</f>
         <v>5.0886284438147094</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="29">
         <f>$T5*1000000/DemographicTable!E$3</f>
         <v>4.4105591591572875</v>
       </c>
@@ -12170,13 +12169,13 @@
         <v>41</v>
       </c>
       <c r="Y5">
-        <f>COUNTIF(F:F,X5)/2</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="17">
         <v>17</v>
       </c>
       <c r="AD5" t="s">
@@ -12185,7 +12184,7 @@
       <c r="AE5">
         <v>13</v>
       </c>
-      <c r="AF5" s="32">
+      <c r="AF5" s="30">
         <f>AE5*1000000/DemographicTable!I7</f>
         <v>4.4889502762430942</v>
       </c>
@@ -12246,28 +12245,28 @@
       <c r="O6">
         <v>5</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="4">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="3">
         <f>SUM(Q3:Q5)</f>
         <v>1715</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="19" t="s">
+      <c r="R6" s="13"/>
+      <c r="S6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <f>COUNTIF(E:E,S6)</f>
         <v>34</v>
       </c>
-      <c r="U6" s="23">
-        <f t="shared" si="2"/>
+      <c r="U6" s="22">
+        <f t="shared" si="3"/>
         <v>2.0643594414086218E-2</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="28">
         <f>T6*1000000/DemographicTable!F$2</f>
         <v>1.8570304989950188</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="29">
         <f>$T6*1000000/DemographicTable!F$3</f>
         <v>1.6984035007093332</v>
       </c>
@@ -12275,13 +12274,13 @@
         <v>49</v>
       </c>
       <c r="Y6">
-        <f>COUNTIF(F:F,X6)/2</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="17">
         <v>14</v>
       </c>
       <c r="AD6" t="s">
@@ -12290,7 +12289,7 @@
       <c r="AE6">
         <v>66</v>
       </c>
-      <c r="AF6" s="32">
+      <c r="AF6" s="30">
         <f>AE6*1000000/DemographicTable!I8</f>
         <v>9.9140779907468612</v>
       </c>
@@ -12351,22 +12350,22 @@
       <c r="O7">
         <v>9</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <f>COUNTIF(E:E,S7)</f>
         <v>26</v>
       </c>
-      <c r="U7" s="23">
-        <f t="shared" si="2"/>
+      <c r="U7" s="22">
+        <f t="shared" si="3"/>
         <v>1.5786278081360048E-2</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="28">
         <f>T7*1000000/DemographicTable!G$2</f>
         <v>10.512696102215752</v>
       </c>
-      <c r="W7" s="30">
+      <c r="W7" s="29">
         <f>$T7*1000000/DemographicTable!G$2</f>
         <v>10.512696102215752</v>
       </c>
@@ -12374,13 +12373,13 @@
         <v>58</v>
       </c>
       <c r="Y7">
-        <f>COUNTIF(F:F,X7)/2</f>
+        <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="AB7" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="17">
         <v>14</v>
       </c>
       <c r="AD7" t="s">
@@ -12389,7 +12388,7 @@
       <c r="AE7">
         <v>285</v>
       </c>
-      <c r="AF7" s="32">
+      <c r="AF7" s="30">
         <f>AE7*1000000/DemographicTable!I9</f>
         <v>7.3640937126143049</v>
       </c>
@@ -12450,22 +12449,22 @@
       <c r="O8">
         <v>13</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>2878</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <f>SUM(T2:T7)</f>
         <v>1647</v>
       </c>
-      <c r="U8" s="23">
-        <f t="shared" si="2"/>
+      <c r="U8" s="22">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="28">
         <f>T8*1000000/DemographicTable!I$2</f>
         <v>5.2092574862913033</v>
       </c>
-      <c r="W8" s="30">
+      <c r="W8" s="29">
         <f>$T8*1000000/(DemographicTable!I$2+DemographicTable!I$3)</f>
         <v>5.0279651943917578</v>
       </c>
@@ -12473,13 +12472,13 @@
         <v>65</v>
       </c>
       <c r="Y8">
-        <f>COUNTIF(F:F,X8)/2</f>
+        <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="AB8" s="17" t="s">
+      <c r="AB8" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
         <v>14</v>
       </c>
       <c r="AD8" t="s">
@@ -12488,7 +12487,7 @@
       <c r="AE8">
         <v>51</v>
       </c>
-      <c r="AF8" s="32">
+      <c r="AF8" s="30">
         <f>AE8*1000000/DemographicTable!I10</f>
         <v>9.4841373154312496</v>
       </c>
@@ -12542,22 +12541,22 @@
       <c r="O9">
         <v>33</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="26"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="25"/>
       <c r="X9" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="Y9" s="21">
         <f>COUNTIF(F2:F1600,X9)</f>
         <v>124</v>
       </c>
-      <c r="AB9" s="17" t="s">
+      <c r="AB9" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AC9" s="17">
         <v>13</v>
       </c>
       <c r="AD9" t="s">
@@ -12566,7 +12565,7 @@
       <c r="AE9">
         <v>7</v>
       </c>
-      <c r="AF9" s="32">
+      <c r="AF9" s="30">
         <f>AE9*1000000/DemographicTable!I11</f>
         <v>1.9564549037144694</v>
       </c>
@@ -12620,11 +12619,11 @@
       <c r="O10">
         <v>29</v>
       </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="26"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="25"/>
       <c r="X10" t="s">
         <v>77</v>
       </c>
@@ -12632,10 +12631,10 @@
         <f>COUNTIF(F:F,X10)</f>
         <v>102</v>
       </c>
-      <c r="AB10" s="17" t="s">
+      <c r="AB10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="17">
         <v>12</v>
       </c>
       <c r="AD10" t="s">
@@ -12644,7 +12643,7 @@
       <c r="AE10">
         <v>10</v>
       </c>
-      <c r="AF10" s="32">
+      <c r="AF10" s="30">
         <f>AE10*1000000/DemographicTable!I12</f>
         <v>15.223017202009439</v>
       </c>
@@ -12698,22 +12697,22 @@
       <c r="O11">
         <v>26</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="26"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="25"/>
       <c r="X11" t="s">
         <v>83</v>
       </c>
       <c r="Y11">
-        <f t="shared" ref="Y11:Y14" si="3">COUNTIF(F:F,X11)</f>
+        <f t="shared" ref="Y11:Y14" si="4">COUNTIF(F:F,X11)</f>
         <v>97</v>
       </c>
-      <c r="AB11" s="17" t="s">
+      <c r="AB11" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AC11" s="17">
         <v>12</v>
       </c>
       <c r="AD11" t="s">
@@ -12722,7 +12721,7 @@
       <c r="AE11">
         <v>5</v>
       </c>
-      <c r="AF11" s="32">
+      <c r="AF11" s="30">
         <f>AE11*1000000/DemographicTable!I13</f>
         <v>5.3792361484669176</v>
       </c>
@@ -12776,22 +12775,22 @@
       <c r="O12">
         <v>34</v>
       </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="26"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
       <c r="X12" t="s">
         <v>89</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="AB12" s="20" t="s">
+      <c r="AB12" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="AC12" s="21">
+      <c r="AC12" s="20">
         <v>12</v>
       </c>
       <c r="AD12" t="s">
@@ -12800,7 +12799,7 @@
       <c r="AE12">
         <v>110</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF12" s="30">
         <f>AE12*1000000/DemographicTable!I14</f>
         <v>5.5749552736542816</v>
       </c>
@@ -12848,16 +12847,16 @@
       <c r="O13">
         <v>41</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="26"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="25"/>
       <c r="X13" t="s">
         <v>95</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="AB13" t="s">
@@ -12872,7 +12871,7 @@
       <c r="AE13">
         <v>58</v>
       </c>
-      <c r="AF13" s="32">
+      <c r="AF13" s="30">
         <f>AE13*1000000/DemographicTable!I15</f>
         <v>5.8203128919930558</v>
       </c>
@@ -12920,18 +12919,18 @@
       <c r="O14">
         <v>51</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="S14" s="47" t="s">
         <v>2876</v>
       </c>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="43"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
       <c r="X14" t="s">
         <v>99</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="AB14" t="s">
@@ -12946,7 +12945,7 @@
       <c r="AE14">
         <v>10</v>
       </c>
-      <c r="AF14" s="32">
+      <c r="AF14" s="30">
         <f>AE14*1000000/DemographicTable!I16</f>
         <v>7.3238611395927933</v>
       </c>
@@ -12994,27 +12993,27 @@
       <c r="O15">
         <v>64</v>
       </c>
-      <c r="P15" s="4" t="str">
+      <c r="P15" s="3" t="str">
         <f>"&lt;20"</f>
         <v>&lt;20</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <f>SUM(O3:O10)</f>
         <v>92</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="10" t="s">
         <v>2874</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="10" t="s">
         <v>2877</v>
       </c>
-      <c r="W15" s="40" t="s">
+      <c r="W15" s="35" t="s">
         <v>2880</v>
       </c>
       <c r="AB15" t="s">
@@ -13029,7 +13028,7 @@
       <c r="AE15">
         <v>8</v>
       </c>
-      <c r="AF15" s="32">
+      <c r="AF15" s="30">
         <f>AE15*1000000/DemographicTable!I17</f>
         <v>2.5967281225655672</v>
       </c>
@@ -13077,30 +13076,30 @@
       <c r="O16">
         <v>64</v>
       </c>
-      <c r="P16" s="4" t="str">
+      <c r="P16" s="3" t="str">
         <f>"20s"</f>
         <v>20s</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <f>SUM(O11:O20)</f>
         <v>494</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <f>COUNTIFS(E:E,S16,L:L,"&lt;&gt;Firearm")</f>
         <v>228</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="22">
         <f>T16/$T$21</f>
         <v>0.26823529411764707</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="28">
         <f>T16*1000000/DemographicTable!D$2</f>
         <v>5.905970729180158</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="29">
         <f>$T16*1000000/DemographicTable!D$3</f>
         <v>5.8200382897255905</v>
       </c>
@@ -13116,7 +13115,7 @@
       <c r="AE16">
         <v>10</v>
       </c>
-      <c r="AF16" s="32">
+      <c r="AF16" s="30">
         <f>AE16*1000000/DemographicTable!I18</f>
         <v>6.210408644888834</v>
       </c>
@@ -13164,30 +13163,30 @@
       <c r="O17">
         <v>49</v>
       </c>
-      <c r="P17" s="4" t="str">
+      <c r="P17" s="3" t="str">
         <f>"30s"</f>
         <v>30s</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <f>SUM(O21:O30)</f>
         <v>500</v>
       </c>
-      <c r="S17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="4">
+      <c r="S17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="3">
         <f>COUNTIFS(E:E,S17,L:L,"&lt;&gt;Firearm")</f>
         <v>426</v>
       </c>
-      <c r="U17" s="23">
-        <f t="shared" ref="U17:U21" si="4">T17/$T$21</f>
+      <c r="U17" s="22">
+        <f t="shared" ref="U17:U21" si="5">T17/$T$21</f>
         <v>0.50117647058823533</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="28">
         <f>T17*1000000/DemographicTable!C$2</f>
         <v>2.1806767469217139</v>
       </c>
-      <c r="W17" s="30">
+      <c r="W17" s="29">
         <f>$T17*1000000/DemographicTable!C$3</f>
         <v>2.1743324646211608</v>
       </c>
@@ -13203,20 +13202,20 @@
       <c r="AE17">
         <v>38</v>
       </c>
-      <c r="AF17" s="32">
+      <c r="AF17" s="30">
         <f>AE17*1000000/DemographicTable!I19</f>
         <v>2.969237140468358</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AH17" s="3" t="s">
         <v>2885</v>
       </c>
-      <c r="AI17" s="4" t="s">
+      <c r="AI17" s="3" t="s">
         <v>2889</v>
       </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AJ17" s="3" t="s">
         <v>2890</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AK17" s="3" t="s">
         <v>2891</v>
       </c>
     </row>
@@ -13263,30 +13262,30 @@
       <c r="O18">
         <v>51</v>
       </c>
-      <c r="P18" s="4" t="str">
+      <c r="P18" s="3" t="str">
         <f>"40s"</f>
         <v>40s</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <f>SUM(O31:O40)</f>
         <v>304</v>
       </c>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <f>COUNTIFS(E:E,S18,L:L,"&lt;&gt;Firearm")</f>
         <v>160</v>
       </c>
-      <c r="U18" s="23">
-        <f t="shared" si="4"/>
+      <c r="U18" s="22">
+        <f t="shared" si="5"/>
         <v>0.18823529411764706</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="28">
         <f>T18*1000000/DemographicTable!E$2</f>
         <v>2.8769630777751005</v>
       </c>
-      <c r="W18" s="30">
+      <c r="W18" s="29">
         <f>$T18*1000000/DemographicTable!E$3</f>
         <v>2.4936023514670174</v>
       </c>
@@ -13302,22 +13301,22 @@
       <c r="AE18">
         <v>31</v>
       </c>
-      <c r="AF18" s="32">
+      <c r="AF18" s="30">
         <f>AE18*1000000/DemographicTable!I20</f>
         <v>4.7857969895793131</v>
       </c>
-      <c r="AH18" s="4" t="s">
+      <c r="AH18" s="3" t="s">
         <v>2886</v>
       </c>
-      <c r="AI18" s="48">
+      <c r="AI18" s="40">
         <f>W3/W4</f>
         <v>2.5732099286459178</v>
       </c>
-      <c r="AJ18" s="48">
+      <c r="AJ18" s="40">
         <f>W5/W4</f>
         <v>1.0036311889573122</v>
       </c>
-      <c r="AK18" s="48">
+      <c r="AK18" s="40">
         <f>W5/W6</f>
         <v>2.5968853439805266</v>
       </c>
@@ -13365,30 +13364,30 @@
       <c r="O19">
         <v>55</v>
       </c>
-      <c r="P19" s="4" t="str">
+      <c r="P19" s="3" t="str">
         <f>"50s"</f>
         <v>50s</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <f>SUM(O41:O50)</f>
         <v>215</v>
       </c>
-      <c r="S19" s="19" t="s">
+      <c r="S19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <f>COUNTIFS(E:E,S19,L:L,"&lt;&gt;Firearm")</f>
         <v>21</v>
       </c>
-      <c r="U19" s="23">
-        <f t="shared" si="4"/>
+      <c r="U19" s="22">
+        <f t="shared" si="5"/>
         <v>2.4705882352941175E-2</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="28">
         <f>T19*1000000/DemographicTable!F$2</f>
         <v>1.1469894258498645</v>
       </c>
-      <c r="W19" s="30">
+      <c r="W19" s="29">
         <f>$T19*1000000/DemographicTable!F$3</f>
         <v>1.0490139269087058</v>
       </c>
@@ -13404,22 +13403,22 @@
       <c r="AE19">
         <v>16</v>
       </c>
-      <c r="AF19" s="32">
+      <c r="AF19" s="30">
         <f>AE19*1000000/DemographicTable!I21</f>
         <v>5.6081317910970911</v>
       </c>
-      <c r="AH19" s="4" t="s">
+      <c r="AH19" s="3" t="s">
         <v>2887</v>
       </c>
-      <c r="AI19" s="48">
+      <c r="AI19" s="40">
         <f>W16/W17</f>
         <v>2.6767011873410214</v>
       </c>
-      <c r="AJ19" s="48">
+      <c r="AJ19" s="40">
         <f>W18/W17</f>
         <v>1.1468358183675851</v>
       </c>
-      <c r="AK19" s="48">
+      <c r="AK19" s="40">
         <f>W17/W19</f>
         <v>2.0727393687027664</v>
       </c>
@@ -13467,30 +13466,30 @@
       <c r="O20">
         <v>59</v>
       </c>
-      <c r="P20" s="4" t="str">
+      <c r="P20" s="3" t="str">
         <f>"60s"</f>
         <v>60s</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <f>SUM(O51:O60)</f>
         <v>77</v>
       </c>
-      <c r="S20" s="19" t="s">
+      <c r="S20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <f>COUNTIFS(E:E,S20,L:L,"&lt;&gt;Firearm")</f>
         <v>15</v>
       </c>
-      <c r="U20" s="23">
-        <f t="shared" si="4"/>
+      <c r="U20" s="22">
+        <f t="shared" si="5"/>
         <v>1.7647058823529412E-2</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20" s="28">
         <f>T20*1000000/DemographicTable!G$2</f>
         <v>6.0650169820475499</v>
       </c>
-      <c r="W20" s="30">
+      <c r="W20" s="29">
         <f>$T20*1000000/DemographicTable!G$2</f>
         <v>6.0650169820475499</v>
       </c>
@@ -13506,22 +13505,22 @@
       <c r="AE20">
         <v>29</v>
       </c>
-      <c r="AF20" s="32">
+      <c r="AF20" s="30">
         <f>AE20*1000000/DemographicTable!I22</f>
         <v>6.7196515049702246</v>
       </c>
-      <c r="AH20" s="4" t="s">
+      <c r="AH20" s="3" t="s">
         <v>2888</v>
       </c>
-      <c r="AI20" s="48">
+      <c r="AI20" s="40">
         <f>W28/W29</f>
         <v>3.5180889289879627</v>
       </c>
-      <c r="AJ20" s="48">
+      <c r="AJ20" s="40">
         <f>W30/W29</f>
         <v>1.0529139194495503</v>
       </c>
-      <c r="AK20" s="48">
+      <c r="AK20" s="40">
         <f>W29/W31</f>
         <v>3.7039268648473729</v>
       </c>
@@ -13569,30 +13568,30 @@
       <c r="O21">
         <v>61</v>
       </c>
-      <c r="P21" s="4" t="str">
+      <c r="P21" s="3" t="str">
         <f>"&gt;70s"</f>
         <v>&gt;70s</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <f>SUM(O61:O71)</f>
         <v>20</v>
       </c>
-      <c r="S21" s="19" t="s">
+      <c r="S21" s="18" t="s">
         <v>2878</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <f>SUM(T15:T20)</f>
         <v>850</v>
       </c>
-      <c r="U21" s="23">
-        <f t="shared" si="4"/>
+      <c r="U21" s="22">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V21" s="29">
+      <c r="V21" s="28">
         <f>T21*1000000/DemographicTable!I$2</f>
         <v>2.6884449686384988</v>
       </c>
-      <c r="W21" s="30">
+      <c r="W21" s="29">
         <f>$T21*1000000/(DemographicTable!I$2+DemographicTable!I$3)</f>
         <v>2.5948818550291404</v>
       </c>
@@ -13608,7 +13607,7 @@
       <c r="AE21">
         <v>38</v>
       </c>
-      <c r="AF21" s="32">
+      <c r="AF21" s="30">
         <f>AE21*1000000/DemographicTable!I23</f>
         <v>8.3397344452979265</v>
       </c>
@@ -13656,11 +13655,11 @@
       <c r="O22">
         <v>57</v>
       </c>
-      <c r="S22" s="17"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="26"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="25"/>
       <c r="AB22" t="s">
         <v>711</v>
       </c>
@@ -13673,17 +13672,17 @@
       <c r="AE22">
         <v>19</v>
       </c>
-      <c r="AF22" s="32">
+      <c r="AF22" s="30">
         <f>AE22*1000000/DemographicTable!I24</f>
         <v>2.8536669620462294</v>
       </c>
-      <c r="AH22" s="4" t="s">
+      <c r="AH22" s="3" t="s">
         <v>2894</v>
       </c>
-      <c r="AI22" s="4" t="s">
+      <c r="AI22" s="3" t="s">
         <v>2892</v>
       </c>
-      <c r="AJ22" s="4" t="s">
+      <c r="AJ22" s="3" t="s">
         <v>2893</v>
       </c>
     </row>
@@ -13730,11 +13729,11 @@
       <c r="O23">
         <v>45</v>
       </c>
-      <c r="S23" s="17"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="26"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="25"/>
       <c r="AB23" t="s">
         <v>368</v>
       </c>
@@ -13747,18 +13746,18 @@
       <c r="AE23">
         <v>25</v>
       </c>
-      <c r="AF23" s="32">
+      <c r="AF23" s="30">
         <f>AE23*1000000/DemographicTable!I25</f>
         <v>4.2095337520416241</v>
       </c>
-      <c r="AH23" s="4" t="s">
+      <c r="AH23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AI23" s="49">
+      <c r="AI23" s="41">
         <f>W3*2/3</f>
         <v>7.5388215273346093</v>
       </c>
-      <c r="AJ23" s="49">
+      <c r="AJ23" s="41">
         <f>AI23/12</f>
         <v>0.62823512727788411</v>
       </c>
@@ -13806,12 +13805,12 @@
       <c r="O24">
         <v>51</v>
       </c>
-      <c r="S24" s="17"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="26"/>
-      <c r="Y24" s="6"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+      <c r="Y24" s="5"/>
       <c r="AB24" t="s">
         <v>424</v>
       </c>
@@ -13824,19 +13823,19 @@
       <c r="AE24">
         <v>3</v>
       </c>
-      <c r="AF24" s="32">
+      <c r="AF24" s="30">
         <f>AE24*1000000/DemographicTable!I26</f>
         <v>2.3084025854108958</v>
       </c>
-      <c r="AH24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI24" s="49">
-        <f t="shared" ref="AI24:AI28" si="5">W4*2/3</f>
+      <c r="AH24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI24" s="41">
+        <f t="shared" ref="AI24:AI28" si="6">W4*2/3</f>
         <v>2.9297343537383718</v>
       </c>
-      <c r="AJ24" s="49">
-        <f t="shared" ref="AJ24:AJ28" si="6">AI24/12</f>
+      <c r="AJ24" s="41">
+        <f t="shared" ref="AJ24:AJ28" si="7">AI24/12</f>
         <v>0.24414452947819765</v>
       </c>
     </row>
@@ -13883,11 +13882,11 @@
       <c r="O25">
         <v>52</v>
       </c>
-      <c r="S25" s="17"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="26"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="25"/>
       <c r="AB25" t="s">
         <v>430</v>
       </c>
@@ -13900,19 +13899,19 @@
       <c r="AE25">
         <v>28</v>
       </c>
-      <c r="AF25" s="32">
+      <c r="AF25" s="30">
         <f>AE25*1000000/DemographicTable!I27</f>
         <v>2.8264556246466932</v>
       </c>
-      <c r="AH25" s="4" t="s">
+      <c r="AH25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AI25" s="49">
-        <f t="shared" si="5"/>
+      <c r="AI25" s="41">
+        <f t="shared" si="6"/>
         <v>2.940372772771525</v>
       </c>
-      <c r="AJ25" s="49">
-        <f t="shared" si="6"/>
+      <c r="AJ25" s="41">
+        <f t="shared" si="7"/>
         <v>0.24503106439762709</v>
       </c>
     </row>
@@ -13959,13 +13958,13 @@
       <c r="O26">
         <v>57</v>
       </c>
-      <c r="S26" s="41" t="s">
+      <c r="S26" s="47" t="s">
         <v>2873</v>
       </c>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="43"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="49"/>
       <c r="AB26" t="s">
         <v>974</v>
       </c>
@@ -13978,19 +13977,19 @@
       <c r="AE26">
         <v>20</v>
       </c>
-      <c r="AF26" s="32">
+      <c r="AF26" s="30">
         <f>AE26*1000000/DemographicTable!I28</f>
         <v>3.6910584109993541</v>
       </c>
-      <c r="AH26" s="4" t="s">
+      <c r="AH26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AI26" s="49">
-        <f t="shared" si="5"/>
+      <c r="AI26" s="41">
+        <f t="shared" si="6"/>
         <v>1.1322690004728888</v>
       </c>
-      <c r="AJ26" s="49">
-        <f t="shared" si="6"/>
+      <c r="AJ26" s="41">
+        <f t="shared" si="7"/>
         <v>9.4355750039407396E-2</v>
       </c>
     </row>
@@ -14037,19 +14036,19 @@
       <c r="O27">
         <v>53</v>
       </c>
-      <c r="S27" s="39" t="s">
+      <c r="S27" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U27" s="11" t="s">
+      <c r="U27" s="10" t="s">
         <v>2874</v>
       </c>
-      <c r="V27" s="11" t="s">
+      <c r="V27" s="10" t="s">
         <v>2877</v>
       </c>
-      <c r="W27" s="40" t="s">
+      <c r="W27" s="35" t="s">
         <v>2880</v>
       </c>
       <c r="AB27" t="s">
@@ -14064,19 +14063,19 @@
       <c r="AE27">
         <v>36</v>
       </c>
-      <c r="AF27" s="32">
+      <c r="AF27" s="30">
         <f>AE27*1000000/DemographicTable!I29</f>
         <v>6.0389512354687733</v>
       </c>
-      <c r="AH27" s="4" t="s">
+      <c r="AH27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI27" s="49">
-        <f t="shared" si="5"/>
+      <c r="AI27" s="41">
+        <f t="shared" si="6"/>
         <v>7.0084640681438346</v>
       </c>
-      <c r="AJ27" s="49">
-        <f t="shared" si="6"/>
+      <c r="AJ27" s="41">
+        <f t="shared" si="7"/>
         <v>0.58403867234531959</v>
       </c>
     </row>
@@ -14123,22 +14122,22 @@
       <c r="O28">
         <v>44</v>
       </c>
-      <c r="S28" s="19" t="s">
+      <c r="S28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <f>COUNTIFS(E:E,S28,L:L,"No")</f>
         <v>102</v>
       </c>
-      <c r="U28" s="23">
+      <c r="U28" s="22">
         <f>T28/T$33</f>
         <v>0.33224755700325731</v>
       </c>
-      <c r="V28" s="29">
+      <c r="V28" s="28">
         <f>T28*1000000/DemographicTable!D$2</f>
         <v>2.6421447998963865</v>
       </c>
-      <c r="W28" s="30">
+      <c r="W28" s="29">
         <f>$T28*1000000/DemographicTable!D$3</f>
         <v>2.6037013401403954</v>
       </c>
@@ -14154,19 +14153,19 @@
       <c r="AE28">
         <v>20</v>
       </c>
-      <c r="AF28" s="32">
+      <c r="AF28" s="30">
         <f>AE28*1000000/DemographicTable!I30</f>
         <v>6.7446801335446667</v>
       </c>
-      <c r="AH28" s="4" t="s">
+      <c r="AH28" s="3" t="s">
         <v>2878</v>
       </c>
-      <c r="AI28" s="49">
-        <f t="shared" si="5"/>
+      <c r="AI28" s="41">
+        <f t="shared" si="6"/>
         <v>3.3519767962611717</v>
       </c>
-      <c r="AJ28" s="49">
-        <f t="shared" si="6"/>
+      <c r="AJ28" s="41">
+        <f t="shared" si="7"/>
         <v>0.27933139968843096</v>
       </c>
     </row>
@@ -14213,22 +14212,22 @@
       <c r="O29">
         <v>38</v>
       </c>
-      <c r="S29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T29" s="4">
+      <c r="S29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" s="3">
         <f>COUNTIFS(E:E,S29,L:L,"No")</f>
         <v>145</v>
       </c>
-      <c r="U29" s="23">
-        <f t="shared" ref="U29:U33" si="7">T29/T$33</f>
+      <c r="U29" s="22">
+        <f t="shared" ref="U29:U33" si="8">T29/T$33</f>
         <v>0.47231270358306188</v>
       </c>
-      <c r="V29" s="29">
+      <c r="V29" s="28">
         <f>T29*1000000/DemographicTable!C$2</f>
         <v>0.74224912747335325</v>
       </c>
-      <c r="W29" s="30">
+      <c r="W29" s="29">
         <f>$T29*1000000/DemographicTable!C$3</f>
         <v>0.74008968866213221</v>
       </c>
@@ -14244,7 +14243,7 @@
       <c r="AE29">
         <v>7</v>
       </c>
-      <c r="AF29" s="32">
+      <c r="AF29" s="30">
         <f>AE29*1000000/DemographicTable!I31</f>
         <v>6.9368744425725897</v>
       </c>
@@ -14292,22 +14291,22 @@
       <c r="O30">
         <v>42</v>
       </c>
-      <c r="S30" s="19" t="s">
+      <c r="S30" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="3">
         <f>COUNTIFS(E:E,S30,L:L,"No")</f>
         <v>50</v>
       </c>
-      <c r="U30" s="23">
-        <f t="shared" si="7"/>
+      <c r="U30" s="22">
+        <f t="shared" si="8"/>
         <v>0.16286644951140064</v>
       </c>
-      <c r="V30" s="29">
+      <c r="V30" s="28">
         <f>T30*1000000/DemographicTable!E$2</f>
         <v>0.89905096180471888</v>
       </c>
-      <c r="W30" s="30">
+      <c r="W30" s="29">
         <f>$T30*1000000/DemographicTable!E$3</f>
         <v>0.77925073483344298</v>
       </c>
@@ -14323,15 +14322,15 @@
       <c r="AE30">
         <v>44</v>
       </c>
-      <c r="AF30" s="32">
+      <c r="AF30" s="30">
         <f>AE30*1000000/DemographicTable!I32</f>
         <v>4.473454116594481</v>
       </c>
-      <c r="AH30" s="31" t="s">
+      <c r="AH30" s="43" t="s">
         <v>2895</v>
       </c>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -14376,22 +14375,22 @@
       <c r="O31">
         <v>33</v>
       </c>
-      <c r="S31" s="19" t="s">
+      <c r="S31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <f>COUNTIFS(E:E,S31,L:L,"No")</f>
         <v>4</v>
       </c>
-      <c r="U31" s="23">
-        <f t="shared" si="7"/>
+      <c r="U31" s="22">
+        <f t="shared" si="8"/>
         <v>1.3029315960912053E-2</v>
       </c>
-      <c r="V31" s="29">
+      <c r="V31" s="28">
         <f>T31*1000000/DemographicTable!F$2</f>
         <v>0.21847417635235516</v>
       </c>
-      <c r="W31" s="30">
+      <c r="W31" s="29">
         <f>$T31*1000000/DemographicTable!F$3</f>
         <v>0.19981217655403921</v>
       </c>
@@ -14407,17 +14406,17 @@
       <c r="AE31">
         <v>2</v>
       </c>
-      <c r="AF31" s="32">
+      <c r="AF31" s="30">
         <f>AE31*1000000/DemographicTable!I33</f>
         <v>2.7270248159258248</v>
       </c>
-      <c r="AH31" s="4" t="s">
+      <c r="AH31" s="3" t="s">
         <v>2894</v>
       </c>
-      <c r="AI31" s="4" t="s">
+      <c r="AI31" s="3" t="s">
         <v>2892</v>
       </c>
-      <c r="AJ31" s="4" t="s">
+      <c r="AJ31" s="3" t="s">
         <v>2893</v>
       </c>
     </row>
@@ -14464,22 +14463,22 @@
       <c r="O32">
         <v>36</v>
       </c>
-      <c r="S32" s="19" t="s">
+      <c r="S32" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="3">
         <f>COUNTIFS(E:E,S32,L:L,"No")</f>
         <v>6</v>
       </c>
-      <c r="U32" s="23">
-        <f t="shared" si="7"/>
+      <c r="U32" s="22">
+        <f t="shared" si="8"/>
         <v>1.9543973941368076E-2</v>
       </c>
-      <c r="V32" s="29">
+      <c r="V32" s="28">
         <f>T32*1000000/DemographicTable!G$2</f>
         <v>2.4260067928190199</v>
       </c>
-      <c r="W32" s="30">
+      <c r="W32" s="29">
         <f>$T32*1000000/DemographicTable!G$2</f>
         <v>2.4260067928190199</v>
       </c>
@@ -14495,18 +14494,18 @@
       <c r="AE32">
         <v>14</v>
       </c>
-      <c r="AF32" s="32">
+      <c r="AF32" s="30">
         <f>AE32*1000000/DemographicTable!I34</f>
         <v>7.4428495481127062</v>
       </c>
-      <c r="AH32" s="4" t="s">
+      <c r="AH32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AI32" s="49">
+      <c r="AI32" s="41">
         <f>W16*2/3</f>
         <v>3.8800255264837271</v>
       </c>
-      <c r="AJ32" s="49">
+      <c r="AJ32" s="41">
         <f>AI32/12</f>
         <v>0.32333546054031059</v>
       </c>
@@ -14554,22 +14553,22 @@
       <c r="O33">
         <v>28</v>
       </c>
-      <c r="S33" s="27" t="s">
+      <c r="S33" s="26" t="s">
         <v>2878</v>
       </c>
-      <c r="T33" s="28">
+      <c r="T33" s="27">
         <f>SUM(T28:T32)</f>
         <v>307</v>
       </c>
-      <c r="U33" s="36">
-        <f t="shared" si="7"/>
+      <c r="U33" s="31">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="V33" s="37">
+      <c r="V33" s="32">
         <f>T33*1000000/DemographicTable!I$2</f>
         <v>0.97100306514355195</v>
       </c>
-      <c r="W33" s="38">
+      <c r="W33" s="33">
         <f>$T33*1000000/(DemographicTable!I$2+DemographicTable!I$3)</f>
         <v>0.93721026999287782</v>
       </c>
@@ -14585,19 +14584,19 @@
       <c r="AE33">
         <v>4</v>
       </c>
-      <c r="AF33" s="32">
+      <c r="AF33" s="30">
         <f>AE33*1000000/DemographicTable!I35</f>
         <v>3.0309918920966887</v>
       </c>
-      <c r="AH33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI33" s="49">
-        <f t="shared" ref="AI33:AI37" si="8">W17*2/3</f>
+      <c r="AH33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI33" s="41">
+        <f t="shared" ref="AI33:AI37" si="9">W17*2/3</f>
         <v>1.4495549764141071</v>
       </c>
-      <c r="AJ33" s="49">
-        <f t="shared" ref="AJ33:AJ37" si="9">AI33/12</f>
+      <c r="AJ33" s="41">
+        <f t="shared" ref="AJ33:AJ37" si="10">AI33/12</f>
         <v>0.12079624803450893</v>
       </c>
     </row>
@@ -14656,19 +14655,19 @@
       <c r="AE34">
         <v>29</v>
       </c>
-      <c r="AF34" s="32">
+      <c r="AF34" s="30">
         <f>AE34*1000000/DemographicTable!I36</f>
         <v>3.2441018871723735</v>
       </c>
-      <c r="AH34" s="4" t="s">
+      <c r="AH34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AI34" s="49">
-        <f t="shared" si="8"/>
+      <c r="AI34" s="41">
+        <f t="shared" si="9"/>
         <v>1.6624015676446782</v>
       </c>
-      <c r="AJ34" s="49">
-        <f t="shared" si="9"/>
+      <c r="AJ34" s="41">
+        <f t="shared" si="10"/>
         <v>0.13853346397038985</v>
       </c>
     </row>
@@ -14727,19 +14726,19 @@
       <c r="AE35">
         <v>36</v>
       </c>
-      <c r="AF35" s="32">
+      <c r="AF35" s="30">
         <f>AE35*1000000/DemographicTable!I37</f>
         <v>17.688679245283019</v>
       </c>
-      <c r="AH35" s="4" t="s">
+      <c r="AH35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AI35" s="49">
-        <f t="shared" si="8"/>
+      <c r="AI35" s="41">
+        <f t="shared" si="9"/>
         <v>0.69934261793913721</v>
       </c>
-      <c r="AJ35" s="49">
-        <f t="shared" si="9"/>
+      <c r="AJ35" s="41">
+        <f t="shared" si="10"/>
         <v>5.8278551494928103E-2</v>
       </c>
     </row>
@@ -14798,19 +14797,19 @@
       <c r="AE36">
         <v>26</v>
       </c>
-      <c r="AF36" s="32">
+      <c r="AF36" s="30">
         <f>AE36*1000000/DemographicTable!I38</f>
         <v>9.2087554012892259</v>
       </c>
-      <c r="AH36" s="4" t="s">
+      <c r="AH36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI36" s="49">
-        <f t="shared" si="8"/>
+      <c r="AI36" s="41">
+        <f t="shared" si="9"/>
         <v>4.0433446546983669</v>
       </c>
-      <c r="AJ36" s="49">
-        <f t="shared" si="9"/>
+      <c r="AJ36" s="41">
+        <f t="shared" si="10"/>
         <v>0.33694538789153056</v>
       </c>
     </row>
@@ -14869,19 +14868,19 @@
       <c r="AE37">
         <v>40</v>
       </c>
-      <c r="AF37" s="32">
+      <c r="AF37" s="30">
         <f>AE37*1000000/DemographicTable!I39</f>
         <v>2.0325822941756355</v>
       </c>
-      <c r="AH37" s="4" t="s">
+      <c r="AH37" s="3" t="s">
         <v>2878</v>
       </c>
-      <c r="AI37" s="49">
-        <f t="shared" si="8"/>
+      <c r="AI37" s="41">
+        <f t="shared" si="9"/>
         <v>1.7299212366860937</v>
       </c>
-      <c r="AJ37" s="49">
-        <f t="shared" si="9"/>
+      <c r="AJ37" s="41">
+        <f t="shared" si="10"/>
         <v>0.14416010305717447</v>
       </c>
     </row>
@@ -14940,7 +14939,7 @@
       <c r="AE38">
         <v>50</v>
       </c>
-      <c r="AF38" s="32">
+      <c r="AF38" s="30">
         <f>AE38*1000000/DemographicTable!I40</f>
         <v>4.3344082665834458</v>
       </c>
@@ -15000,7 +14999,7 @@
       <c r="AE39">
         <v>50</v>
       </c>
-      <c r="AF39" s="32">
+      <c r="AF39" s="30">
         <f>AE39*1000000/DemographicTable!I41</f>
         <v>13.362909907261406</v>
       </c>
@@ -15060,7 +15059,7 @@
       <c r="AE40">
         <v>27</v>
       </c>
-      <c r="AF40" s="32">
+      <c r="AF40" s="30">
         <f>AE40*1000000/DemographicTable!I42</f>
         <v>6.8142240617822978</v>
       </c>
@@ -15120,7 +15119,7 @@
       <c r="AE41">
         <v>36</v>
       </c>
-      <c r="AF41" s="32">
+      <c r="AF41" s="30">
         <f>AE41*1000000/DemographicTable!I43</f>
         <v>2.8510109209557224</v>
       </c>
@@ -15180,7 +15179,7 @@
       <c r="AE42">
         <v>3</v>
       </c>
-      <c r="AF42" s="32">
+      <c r="AF42" s="30">
         <f>AE42*1000000/DemographicTable!I44</f>
         <v>2.8620492272467088</v>
       </c>
@@ -15240,7 +15239,7 @@
       <c r="AE43">
         <v>29</v>
       </c>
-      <c r="AF43" s="32">
+      <c r="AF43" s="30">
         <f>AE43*1000000/DemographicTable!I45</f>
         <v>6.0869382700501644</v>
       </c>
@@ -15300,7 +15299,7 @@
       <c r="AE44">
         <v>7</v>
       </c>
-      <c r="AF44" s="32">
+      <c r="AF44" s="30">
         <f>AE44*1000000/DemographicTable!I46</f>
         <v>8.2664147378365609</v>
       </c>
@@ -15360,7 +15359,7 @@
       <c r="AE45">
         <v>33</v>
       </c>
-      <c r="AF45" s="32">
+      <c r="AF45" s="30">
         <f>AE45*1000000/DemographicTable!I47</f>
         <v>5.0753614272531529</v>
       </c>
@@ -15420,7 +15419,7 @@
       <c r="AE46">
         <v>163</v>
       </c>
-      <c r="AF46" s="32">
+      <c r="AF46" s="30">
         <f>AE46*1000000/DemographicTable!I48</f>
         <v>6.1077512234237883</v>
       </c>
@@ -15480,7 +15479,7 @@
       <c r="AE47">
         <v>15</v>
       </c>
-      <c r="AF47" s="32">
+      <c r="AF47" s="30">
         <f>AE47*1000000/DemographicTable!I49</f>
         <v>5.120502491977879</v>
       </c>
@@ -15540,7 +15539,7 @@
       <c r="AE48">
         <v>36</v>
       </c>
-      <c r="AF48" s="32">
+      <c r="AF48" s="30">
         <f>AE48*1000000/DemographicTable!I50</f>
         <v>4.3589867777401077</v>
       </c>
@@ -15600,7 +15599,7 @@
       <c r="AE49">
         <v>2</v>
       </c>
-      <c r="AF49" s="32">
+      <c r="AF49" s="30">
         <f>AE49*1000000/DemographicTable!I51</f>
         <v>3.2414910858995136</v>
       </c>
@@ -15660,7 +15659,7 @@
       <c r="AE50">
         <v>35</v>
       </c>
-      <c r="AF50" s="32">
+      <c r="AF50" s="30">
         <f>AE50*1000000/DemographicTable!I52</f>
         <v>4.9400141143260408</v>
       </c>
@@ -15720,7 +15719,7 @@
       <c r="AE51">
         <v>23</v>
       </c>
-      <c r="AF51" s="32">
+      <c r="AF51" s="30">
         <f>AE51*1000000/DemographicTable!I53</f>
         <v>4.0019487750556797</v>
       </c>
@@ -15780,7 +15779,7 @@
       <c r="AE52">
         <v>15</v>
       </c>
-      <c r="AF52" s="32">
+      <c r="AF52" s="30">
         <f>AE52*1000000/DemographicTable!I54</f>
         <v>8.2169268693508624</v>
       </c>
@@ -15840,7 +15839,7 @@
       <c r="AE53">
         <v>8</v>
       </c>
-      <c r="AF53" s="32">
+      <c r="AF53" s="30">
         <f>AE53*1000000/DemographicTable!I55</f>
         <v>13.986013986013987</v>
       </c>
@@ -15894,7 +15893,7 @@
       <c r="AC54">
         <v>5</v>
       </c>
-      <c r="AF54" s="32"/>
+      <c r="AF54" s="30"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -15945,11 +15944,11 @@
       <c r="AC55">
         <v>5</v>
       </c>
-      <c r="AD55" s="3" t="s">
+      <c r="AD55" s="42" t="s">
         <v>2882</v>
       </c>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -16006,7 +16005,7 @@
       <c r="AE56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AF56" s="44" t="s">
+      <c r="AF56" s="36" t="s">
         <v>2877</v>
       </c>
     </row>
@@ -16065,7 +16064,7 @@
       <c r="AE57">
         <v>36</v>
       </c>
-      <c r="AF57" s="32">
+      <c r="AF57" s="30">
         <v>17.688679245283019</v>
       </c>
     </row>
@@ -16124,7 +16123,7 @@
       <c r="AE58">
         <v>10</v>
       </c>
-      <c r="AF58" s="32">
+      <c r="AF58" s="30">
         <v>15.223017202009439</v>
       </c>
     </row>
@@ -16183,7 +16182,7 @@
       <c r="AE59">
         <v>8</v>
       </c>
-      <c r="AF59" s="32">
+      <c r="AF59" s="30">
         <v>13.986013986013987</v>
       </c>
     </row>
@@ -16242,7 +16241,7 @@
       <c r="AE60">
         <v>50</v>
       </c>
-      <c r="AF60" s="32">
+      <c r="AF60" s="30">
         <v>13.362909907261406</v>
       </c>
     </row>
@@ -16295,13 +16294,13 @@
       <c r="AC61">
         <v>4</v>
       </c>
-      <c r="AD61" s="45" t="s">
+      <c r="AD61" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AE61" s="46">
+      <c r="AE61" s="38">
         <v>9</v>
       </c>
-      <c r="AF61" s="47">
+      <c r="AF61" s="39">
         <v>12.936610608020699</v>
       </c>
       <c r="AG61" t="s">
@@ -16363,7 +16362,7 @@
       <c r="AE62">
         <v>66</v>
       </c>
-      <c r="AF62" s="32">
+      <c r="AF62" s="30">
         <v>9.9140779907468612</v>
       </c>
     </row>
@@ -16422,7 +16421,7 @@
       <c r="AE63">
         <v>51</v>
       </c>
-      <c r="AF63" s="32">
+      <c r="AF63" s="30">
         <v>9.4841373154312496</v>
       </c>
     </row>
@@ -16481,7 +16480,7 @@
       <c r="AE64">
         <v>26</v>
       </c>
-      <c r="AF64" s="32">
+      <c r="AF64" s="30">
         <v>9.2087554012892259</v>
       </c>
     </row>
@@ -16540,7 +16539,7 @@
       <c r="AE65">
         <v>38</v>
       </c>
-      <c r="AF65" s="32">
+      <c r="AF65" s="30">
         <v>8.3397344452979265</v>
       </c>
     </row>
@@ -16599,7 +16598,7 @@
       <c r="AE66">
         <v>7</v>
       </c>
-      <c r="AF66" s="32">
+      <c r="AF66" s="30">
         <v>8.2664147378365609</v>
       </c>
     </row>
@@ -16658,7 +16657,7 @@
       <c r="AE67">
         <v>15</v>
       </c>
-      <c r="AF67" s="32">
+      <c r="AF67" s="30">
         <v>8.2169268693508624</v>
       </c>
     </row>
@@ -16717,7 +16716,7 @@
       <c r="AE68">
         <v>36</v>
       </c>
-      <c r="AF68" s="32">
+      <c r="AF68" s="30">
         <v>7.550335570469799</v>
       </c>
     </row>
@@ -16776,7 +16775,7 @@
       <c r="AE69">
         <v>14</v>
       </c>
-      <c r="AF69" s="32">
+      <c r="AF69" s="30">
         <v>7.4428495481127062</v>
       </c>
     </row>
@@ -16835,7 +16834,7 @@
       <c r="AE70">
         <v>285</v>
       </c>
-      <c r="AF70" s="32">
+      <c r="AF70" s="30">
         <v>7.3640937126143049</v>
       </c>
     </row>
@@ -16894,7 +16893,7 @@
       <c r="AE71">
         <v>10</v>
       </c>
-      <c r="AF71" s="32">
+      <c r="AF71" s="30">
         <v>7.3238611395927933</v>
       </c>
     </row>
@@ -16953,7 +16952,7 @@
       <c r="AE72">
         <v>7</v>
       </c>
-      <c r="AF72" s="32">
+      <c r="AF72" s="30">
         <v>6.9368744425725897</v>
       </c>
     </row>
@@ -17006,7 +17005,7 @@
       <c r="AE73">
         <v>27</v>
       </c>
-      <c r="AF73" s="32">
+      <c r="AF73" s="30">
         <v>6.8142240617822978</v>
       </c>
     </row>
@@ -17059,7 +17058,7 @@
       <c r="AE74">
         <v>20</v>
       </c>
-      <c r="AF74" s="32">
+      <c r="AF74" s="30">
         <v>6.7446801335446667</v>
       </c>
     </row>
@@ -17112,7 +17111,7 @@
       <c r="AE75">
         <v>29</v>
       </c>
-      <c r="AF75" s="32">
+      <c r="AF75" s="30">
         <v>6.7196515049702246</v>
       </c>
     </row>
@@ -17165,7 +17164,7 @@
       <c r="AE76">
         <v>10</v>
       </c>
-      <c r="AF76" s="32">
+      <c r="AF76" s="30">
         <v>6.210408644888834</v>
       </c>
     </row>
@@ -17218,7 +17217,7 @@
       <c r="AE77">
         <v>163</v>
       </c>
-      <c r="AF77" s="32">
+      <c r="AF77" s="30">
         <v>6.1077512234237883</v>
       </c>
     </row>
@@ -17271,7 +17270,7 @@
       <c r="AE78">
         <v>29</v>
       </c>
-      <c r="AF78" s="32">
+      <c r="AF78" s="30">
         <v>6.0869382700501644</v>
       </c>
     </row>
@@ -17324,7 +17323,7 @@
       <c r="AE79">
         <v>36</v>
       </c>
-      <c r="AF79" s="32">
+      <c r="AF79" s="30">
         <v>6.0389512354687733</v>
       </c>
     </row>
@@ -17377,7 +17376,7 @@
       <c r="AE80">
         <v>58</v>
       </c>
-      <c r="AF80" s="32">
+      <c r="AF80" s="30">
         <v>5.8203128919930558</v>
       </c>
     </row>
@@ -17430,7 +17429,7 @@
       <c r="AE81">
         <v>16</v>
       </c>
-      <c r="AF81" s="32">
+      <c r="AF81" s="30">
         <v>5.6081317910970911</v>
       </c>
     </row>
@@ -17483,7 +17482,7 @@
       <c r="AE82">
         <v>110</v>
       </c>
-      <c r="AF82" s="32">
+      <c r="AF82" s="30">
         <v>5.5749552736542816</v>
       </c>
     </row>
@@ -17536,7 +17535,7 @@
       <c r="AE83">
         <v>5</v>
       </c>
-      <c r="AF83" s="32">
+      <c r="AF83" s="30">
         <v>5.3792361484669176</v>
       </c>
     </row>
@@ -17589,7 +17588,7 @@
       <c r="AE84">
         <v>15</v>
       </c>
-      <c r="AF84" s="32">
+      <c r="AF84" s="30">
         <v>5.120502491977879</v>
       </c>
     </row>
@@ -17642,7 +17641,7 @@
       <c r="AE85">
         <v>33</v>
       </c>
-      <c r="AF85" s="32">
+      <c r="AF85" s="30">
         <v>5.0753614272531529</v>
       </c>
     </row>
@@ -17695,7 +17694,7 @@
       <c r="AE86">
         <v>35</v>
       </c>
-      <c r="AF86" s="32">
+      <c r="AF86" s="30">
         <v>4.9400141143260408</v>
       </c>
     </row>
@@ -17748,7 +17747,7 @@
       <c r="AE87">
         <v>31</v>
       </c>
-      <c r="AF87" s="32">
+      <c r="AF87" s="30">
         <v>4.7857969895793131</v>
       </c>
     </row>
@@ -17801,7 +17800,7 @@
       <c r="AE88">
         <v>13</v>
       </c>
-      <c r="AF88" s="32">
+      <c r="AF88" s="30">
         <v>4.4889502762430942</v>
       </c>
     </row>
@@ -17848,13 +17847,13 @@
       <c r="AC89">
         <v>3</v>
       </c>
-      <c r="AD89" s="45" t="s">
+      <c r="AD89" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="AE89" s="46">
+      <c r="AE89" s="38">
         <v>44</v>
       </c>
-      <c r="AF89" s="47">
+      <c r="AF89" s="39">
         <v>4.473454116594481</v>
       </c>
       <c r="AG89" t="s">
@@ -17910,7 +17909,7 @@
       <c r="AE90">
         <v>36</v>
       </c>
-      <c r="AF90" s="32">
+      <c r="AF90" s="30">
         <v>4.3589867777401077</v>
       </c>
     </row>
@@ -17963,7 +17962,7 @@
       <c r="AE91">
         <v>50</v>
       </c>
-      <c r="AF91" s="32">
+      <c r="AF91" s="30">
         <v>4.3344082665834458</v>
       </c>
     </row>
@@ -18016,7 +18015,7 @@
       <c r="AE92">
         <v>25</v>
       </c>
-      <c r="AF92" s="32">
+      <c r="AF92" s="30">
         <v>4.2095337520416241</v>
       </c>
     </row>
@@ -18069,7 +18068,7 @@
       <c r="AE93">
         <v>23</v>
       </c>
-      <c r="AF93" s="32">
+      <c r="AF93" s="30">
         <v>4.0019487750556797</v>
       </c>
     </row>
@@ -18122,7 +18121,7 @@
       <c r="AE94">
         <v>20</v>
       </c>
-      <c r="AF94" s="32">
+      <c r="AF94" s="30">
         <v>3.6910584109993541</v>
       </c>
     </row>
@@ -18175,7 +18174,7 @@
       <c r="AE95">
         <v>29</v>
       </c>
-      <c r="AF95" s="32">
+      <c r="AF95" s="30">
         <v>3.2441018871723735</v>
       </c>
     </row>
@@ -18228,7 +18227,7 @@
       <c r="AE96">
         <v>2</v>
       </c>
-      <c r="AF96" s="32">
+      <c r="AF96" s="30">
         <v>3.2414910858995136</v>
       </c>
     </row>
@@ -18281,7 +18280,7 @@
       <c r="AE97">
         <v>4</v>
       </c>
-      <c r="AF97" s="32">
+      <c r="AF97" s="30">
         <v>3.0309918920966887</v>
       </c>
     </row>
@@ -18334,7 +18333,7 @@
       <c r="AE98">
         <v>38</v>
       </c>
-      <c r="AF98" s="32">
+      <c r="AF98" s="30">
         <v>2.969237140468358</v>
       </c>
     </row>
@@ -18387,7 +18386,7 @@
       <c r="AE99">
         <v>3</v>
       </c>
-      <c r="AF99" s="32">
+      <c r="AF99" s="30">
         <v>2.8620492272467088</v>
       </c>
     </row>
@@ -18440,7 +18439,7 @@
       <c r="AE100">
         <v>19</v>
       </c>
-      <c r="AF100" s="32">
+      <c r="AF100" s="30">
         <v>2.8536669620462294</v>
       </c>
     </row>
@@ -18493,7 +18492,7 @@
       <c r="AE101">
         <v>36</v>
       </c>
-      <c r="AF101" s="32">
+      <c r="AF101" s="30">
         <v>2.8510109209557224</v>
       </c>
     </row>
@@ -18546,7 +18545,7 @@
       <c r="AE102">
         <v>28</v>
       </c>
-      <c r="AF102" s="32">
+      <c r="AF102" s="30">
         <v>2.8264556246466932</v>
       </c>
     </row>
@@ -18599,7 +18598,7 @@
       <c r="AE103">
         <v>2</v>
       </c>
-      <c r="AF103" s="32">
+      <c r="AF103" s="30">
         <v>2.7270248159258248</v>
       </c>
     </row>
@@ -18652,7 +18651,7 @@
       <c r="AE104">
         <v>8</v>
       </c>
-      <c r="AF104" s="32">
+      <c r="AF104" s="30">
         <v>2.5967281225655672</v>
       </c>
     </row>
@@ -18705,7 +18704,7 @@
       <c r="AE105">
         <v>3</v>
       </c>
-      <c r="AF105" s="32">
+      <c r="AF105" s="30">
         <v>2.3084025854108958</v>
       </c>
     </row>
@@ -18758,7 +18757,7 @@
       <c r="AE106">
         <v>40</v>
       </c>
-      <c r="AF106" s="32">
+      <c r="AF106" s="30">
         <v>2.0325822941756355</v>
       </c>
     </row>
@@ -18811,7 +18810,7 @@
       <c r="AE107">
         <v>7</v>
       </c>
-      <c r="AF107" s="32">
+      <c r="AF107" s="30">
         <v>1.9564549037144694</v>
       </c>
     </row>
@@ -18858,7 +18857,7 @@
       <c r="AC108">
         <v>3</v>
       </c>
-      <c r="AF108" s="32"/>
+      <c r="AF108" s="30"/>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -18903,7 +18902,7 @@
       <c r="AC109">
         <v>3</v>
       </c>
-      <c r="AF109" s="32"/>
+      <c r="AF109" s="30"/>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -18948,7 +18947,7 @@
       <c r="AC110">
         <v>3</v>
       </c>
-      <c r="AF110" s="32"/>
+      <c r="AF110" s="30"/>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -18993,7 +18992,7 @@
       <c r="AC111">
         <v>3</v>
       </c>
-      <c r="AF111" s="32"/>
+      <c r="AF111" s="30"/>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -19038,7 +19037,7 @@
       <c r="AC112">
         <v>3</v>
       </c>
-      <c r="AF112" s="32"/>
+      <c r="AF112" s="30"/>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -19083,7 +19082,7 @@
       <c r="AC113">
         <v>3</v>
       </c>
-      <c r="AF113" s="32"/>
+      <c r="AF113" s="30"/>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -19128,7 +19127,7 @@
       <c r="AC114">
         <v>3</v>
       </c>
-      <c r="AF114" s="32"/>
+      <c r="AF114" s="30"/>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -19173,7 +19172,7 @@
       <c r="AC115">
         <v>3</v>
       </c>
-      <c r="AF115" s="32"/>
+      <c r="AF115" s="30"/>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -19218,7 +19217,7 @@
       <c r="AC116">
         <v>3</v>
       </c>
-      <c r="AF116" s="32"/>
+      <c r="AF116" s="30"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -19263,7 +19262,7 @@
       <c r="AC117">
         <v>3</v>
       </c>
-      <c r="AF117" s="32"/>
+      <c r="AF117" s="30"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -19308,7 +19307,7 @@
       <c r="AC118">
         <v>3</v>
       </c>
-      <c r="AF118" s="32"/>
+      <c r="AF118" s="30"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -19353,7 +19352,7 @@
       <c r="AC119">
         <v>3</v>
       </c>
-      <c r="AF119" s="32"/>
+      <c r="AF119" s="30"/>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -19398,7 +19397,7 @@
       <c r="AC120">
         <v>2</v>
       </c>
-      <c r="AF120" s="32"/>
+      <c r="AF120" s="30"/>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -19443,7 +19442,7 @@
       <c r="AC121">
         <v>2</v>
       </c>
-      <c r="AF121" s="32"/>
+      <c r="AF121" s="30"/>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -19488,7 +19487,7 @@
       <c r="AC122">
         <v>2</v>
       </c>
-      <c r="AF122" s="32"/>
+      <c r="AF122" s="30"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -19533,7 +19532,7 @@
       <c r="AC123">
         <v>2</v>
       </c>
-      <c r="AF123" s="32"/>
+      <c r="AF123" s="30"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -19578,7 +19577,7 @@
       <c r="AC124">
         <v>2</v>
       </c>
-      <c r="AF124" s="32"/>
+      <c r="AF124" s="30"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -19623,7 +19622,7 @@
       <c r="AC125">
         <v>2</v>
       </c>
-      <c r="AF125" s="32"/>
+      <c r="AF125" s="30"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -19668,7 +19667,7 @@
       <c r="AC126">
         <v>2</v>
       </c>
-      <c r="AF126" s="32"/>
+      <c r="AF126" s="30"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -19713,7 +19712,7 @@
       <c r="AC127">
         <v>2</v>
       </c>
-      <c r="AF127" s="32"/>
+      <c r="AF127" s="30"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -19758,7 +19757,7 @@
       <c r="AC128">
         <v>2</v>
       </c>
-      <c r="AF128" s="32"/>
+      <c r="AF128" s="30"/>
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -19803,7 +19802,7 @@
       <c r="AC129">
         <v>2</v>
       </c>
-      <c r="AF129" s="32"/>
+      <c r="AF129" s="30"/>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -19848,7 +19847,7 @@
       <c r="AC130">
         <v>2</v>
       </c>
-      <c r="AF130" s="32"/>
+      <c r="AF130" s="30"/>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -19893,7 +19892,7 @@
       <c r="AC131">
         <v>2</v>
       </c>
-      <c r="AF131" s="32"/>
+      <c r="AF131" s="30"/>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -19938,7 +19937,7 @@
       <c r="AC132">
         <v>2</v>
       </c>
-      <c r="AF132" s="32"/>
+      <c r="AF132" s="30"/>
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -19983,7 +19982,7 @@
       <c r="AC133">
         <v>2</v>
       </c>
-      <c r="AF133" s="32"/>
+      <c r="AF133" s="30"/>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -20028,7 +20027,7 @@
       <c r="AC134">
         <v>2</v>
       </c>
-      <c r="AF134" s="32"/>
+      <c r="AF134" s="30"/>
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -20073,7 +20072,7 @@
       <c r="AC135">
         <v>2</v>
       </c>
-      <c r="AF135" s="32"/>
+      <c r="AF135" s="30"/>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -20118,7 +20117,7 @@
       <c r="AC136">
         <v>2</v>
       </c>
-      <c r="AF136" s="32"/>
+      <c r="AF136" s="30"/>
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -20163,7 +20162,7 @@
       <c r="AC137">
         <v>2</v>
       </c>
-      <c r="AF137" s="32"/>
+      <c r="AF137" s="30"/>
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -20208,7 +20207,7 @@
       <c r="AC138">
         <v>2</v>
       </c>
-      <c r="AF138" s="32"/>
+      <c r="AF138" s="30"/>
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -20253,7 +20252,7 @@
       <c r="AC139">
         <v>2</v>
       </c>
-      <c r="AF139" s="32"/>
+      <c r="AF139" s="30"/>
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -20298,7 +20297,7 @@
       <c r="AC140">
         <v>2</v>
       </c>
-      <c r="AF140" s="32"/>
+      <c r="AF140" s="30"/>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -20343,7 +20342,7 @@
       <c r="AC141">
         <v>2</v>
       </c>
-      <c r="AF141" s="32"/>
+      <c r="AF141" s="30"/>
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -20388,7 +20387,7 @@
       <c r="AC142">
         <v>2</v>
       </c>
-      <c r="AF142" s="32"/>
+      <c r="AF142" s="30"/>
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -20433,7 +20432,7 @@
       <c r="AC143">
         <v>2</v>
       </c>
-      <c r="AF143" s="32"/>
+      <c r="AF143" s="30"/>
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -20478,7 +20477,7 @@
       <c r="AC144">
         <v>2</v>
       </c>
-      <c r="AF144" s="32"/>
+      <c r="AF144" s="30"/>
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -20523,7 +20522,7 @@
       <c r="AC145">
         <v>2</v>
       </c>
-      <c r="AF145" s="32"/>
+      <c r="AF145" s="30"/>
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -20568,7 +20567,7 @@
       <c r="AC146">
         <v>2</v>
       </c>
-      <c r="AF146" s="32"/>
+      <c r="AF146" s="30"/>
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -20613,7 +20612,7 @@
       <c r="AC147">
         <v>2</v>
       </c>
-      <c r="AF147" s="32"/>
+      <c r="AF147" s="30"/>
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -20658,7 +20657,7 @@
       <c r="AC148">
         <v>2</v>
       </c>
-      <c r="AF148" s="32"/>
+      <c r="AF148" s="30"/>
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -20703,7 +20702,7 @@
       <c r="AC149">
         <v>2</v>
       </c>
-      <c r="AF149" s="32"/>
+      <c r="AF149" s="30"/>
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -20748,7 +20747,7 @@
       <c r="AC150">
         <v>2</v>
       </c>
-      <c r="AF150" s="32"/>
+      <c r="AF150" s="30"/>
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -20793,7 +20792,7 @@
       <c r="AC151">
         <v>2</v>
       </c>
-      <c r="AF151" s="32"/>
+      <c r="AF151" s="30"/>
     </row>
     <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -20838,7 +20837,7 @@
       <c r="AC152">
         <v>2</v>
       </c>
-      <c r="AF152" s="32"/>
+      <c r="AF152" s="30"/>
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -20883,7 +20882,7 @@
       <c r="AC153">
         <v>2</v>
       </c>
-      <c r="AF153" s="32"/>
+      <c r="AF153" s="30"/>
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -20928,7 +20927,7 @@
       <c r="AC154">
         <v>2</v>
       </c>
-      <c r="AF154" s="32"/>
+      <c r="AF154" s="30"/>
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -63934,7 +63933,7 @@
       <c r="L1148" t="s">
         <v>86</v>
       </c>
-      <c r="M1148" s="9" t="s">
+      <c r="M1148" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AJ1148" t="s">
@@ -85595,8 +85594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85696,31 +85695,31 @@
       <c r="B4" t="s">
         <v>2872</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>C2/$I2</f>
         <v>0.61787486964995497</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:H4" si="0">D2/$I2</f>
         <v>0.12210284472269323</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f t="shared" si="0"/>
         <v>0.17590084255865318</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>5.7908472049186525E-2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>7.8224259958079231E-3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f t="shared" si="0"/>
         <v>1.8390861311347546E-2</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
